--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.3_KS_Holdout_seed_0/metrics/Trial_468__Reeval_LHS_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.3_KS_Holdout_seed_0/metrics/Trial_468__Reeval_LHS_Modell_1.3.xlsx
@@ -5951,7 +5951,7 @@
                   <c:v>59.37413024902344</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>72.52786254882812</c:v>
+                  <c:v>72.52787017822266</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>69.04415130615234</c:v>
@@ -6080,7 +6080,7 @@
                   <c:v>68.27780151367188</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>65.67837524414062</c:v>
+                  <c:v>65.67838287353516</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>65.02986907958984</c:v>
@@ -6101,7 +6101,7 @@
                   <c:v>63.20330810546875</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>69.63565826416016</c:v>
+                  <c:v>69.63566589355469</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>68.89952087402344</c:v>
@@ -6152,7 +6152,7 @@
                   <c:v>75.14806365966797</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>73.87847900390625</c:v>
+                  <c:v>73.87848663330078</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>70.69054412841797</c:v>
@@ -7451,7 +7451,7 @@
         <v>73.9263</v>
       </c>
       <c r="F28">
-        <v>72.52786254882812</v>
+        <v>72.52787017822266</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>48.8963</v>
       </c>
       <c r="F71">
-        <v>65.67837524414062</v>
+        <v>65.67838287353516</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>82.36839999999999</v>
       </c>
       <c r="F78">
-        <v>69.63565826416016</v>
+        <v>69.63566589355469</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>85.5478</v>
       </c>
       <c r="F95">
-        <v>73.87847900390625</v>
+        <v>73.87848663330078</v>
       </c>
     </row>
     <row r="96" spans="1:6">
